--- a/K-NeighborsClassifier/PFMatrix.xlsx
+++ b/K-NeighborsClassifier/PFMatrix.xlsx
@@ -429,46 +429,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8072805858294509</v>
+        <v>0.487627365356623</v>
       </c>
       <c r="C2">
-        <v>0.8072805858294509</v>
+        <v>0.835934204976803</v>
       </c>
       <c r="D2">
-        <v>0.8072805858294509</v>
+        <v>0.8698620188816267</v>
       </c>
       <c r="E2">
-        <v>0.8072805858294509</v>
+        <v>0.8596189657642171</v>
       </c>
       <c r="F2">
-        <v>0.8072805858294509</v>
+        <v>0.8490004253509145</v>
       </c>
       <c r="G2">
-        <v>0.8072805858294509</v>
+        <v>0.8272434551308974</v>
       </c>
       <c r="H2">
-        <v>0.8072805858294509</v>
+        <v>0.8293155998891659</v>
       </c>
       <c r="I2">
-        <v>0.8072805858294509</v>
+        <v>0.8193530701754386</v>
       </c>
       <c r="J2">
-        <v>0.8072805858294509</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="K2">
-        <v>0.8072805858294509</v>
+        <v>0.8583230070218918</v>
       </c>
       <c r="L2">
-        <v>0.8072805858294509</v>
+        <v>0.8106648482917949</v>
       </c>
       <c r="M2">
-        <v>0.8051612659704398</v>
+        <v>0.807580545458251</v>
       </c>
       <c r="N2">
-        <v>0.8074071227961873</v>
+        <v>0.8106146356758117</v>
       </c>
       <c r="O2">
-        <v>0.8072805858294509</v>
+        <v>0.8106648482917949</v>
       </c>
     </row>
   </sheetData>
